--- a/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（お小遣い情報一覧画面）.xlsx
+++ b/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（お小遣い情報一覧画面）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -289,19 +289,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reciveDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reciveDateLabel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>amountLabel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>amounｔ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -316,6 +308,36 @@
     <rPh sb="1" eb="2">
       <t>ガツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お小遣い情報リスト</t>
+    <rPh sb="1" eb="3">
+      <t>コヅカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expenseList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reciveDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -485,21 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -583,67 +590,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -680,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -692,41 +638,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,36 +676,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -813,7 +731,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="お小遣い情報一覧!$D$1:$P$25" spid="_x0000_s1091"/>
+                  <a14:cameraTool cellRange="お小遣い情報一覧!$D$1:$P$25" spid="_x0000_s1105"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -936,6 +854,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B44:I51" totalsRowShown="0">
+  <autoFilter ref="B44:I51"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="項目名"/>
+    <tableColumn id="3" name="項目ID"/>
+    <tableColumn id="5" name="桁数"/>
+    <tableColumn id="6" name="種類"/>
+    <tableColumn id="7" name="フォーマット"/>
+    <tableColumn id="8" name="繰り返し"/>
+    <tableColumn id="9" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1225,60 +1160,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1290,10 +1224,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1307,10 +1240,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1320,10 +1252,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1333,10 +1264,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1346,10 +1276,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1359,10 +1288,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1372,10 +1300,9 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1385,10 +1312,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1398,10 +1324,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1411,10 +1336,9 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1424,10 +1348,9 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1437,10 +1360,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1450,10 +1372,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1463,10 +1384,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1476,10 +1396,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1489,10 +1408,9 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1502,10 +1420,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1515,10 +1432,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1530,10 +1446,9 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1545,10 +1460,9 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1560,10 +1474,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1575,10 +1488,9 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1590,10 +1502,9 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1605,10 +1516,9 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1620,10 +1530,9 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1635,10 +1544,9 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1650,10 +1558,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1665,10 +1572,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1680,10 +1586,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1695,10 +1600,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1710,10 +1614,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1725,10 +1628,9 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1740,10 +1642,9 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1755,10 +1656,9 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1770,10 +1670,9 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1785,10 +1684,9 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1800,48 +1698,45 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="31" t="s">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="39" t="str">
-        <f t="shared" ref="E40" si="0">$E$1</f>
+      <c r="E40" s="23" t="str">
+        <f>$E$1</f>
         <v>お小遣い情報一覧</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1852,10 +1747,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
         <v>2</v>
@@ -1869,222 +1763,193 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="19" t="s">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19" t="s">
+      <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="F44" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="G44" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="I44" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
-      <c r="B45" s="17">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="22" t="s">
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="25" t="s">
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="11">
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="23" t="s">
+      <c r="E46" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="26" t="s">
+      <c r="H46" t="s">
         <v>41</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
-      <c r="B47" s="11">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="23" t="s">
+      <c r="E48" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="F48" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="26" t="s">
+      <c r="H48" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="15">
-        <v>4</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="23" t="s">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="15">
-        <v>5</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="23">
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50">
         <v>10</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="F50" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="G50" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="H50" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="15">
-        <v>6</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="23">
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51">
         <v>10</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="G51" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="H51" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2096,10 +1961,9 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2111,10 +1975,9 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2126,10 +1989,9 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2141,10 +2003,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2156,10 +2017,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2171,10 +2031,9 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2186,10 +2045,9 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2201,10 +2059,9 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2216,10 +2073,9 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2231,10 +2087,9 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2246,10 +2101,9 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2261,10 +2115,9 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2276,10 +2129,9 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2291,10 +2143,9 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2306,10 +2157,9 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2321,10 +2171,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2336,10 +2185,9 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2351,10 +2199,9 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2366,10 +2213,9 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2381,10 +2227,9 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2396,10 +2241,9 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2411,10 +2255,9 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2426,10 +2269,9 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2441,10 +2283,9 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2456,10 +2297,9 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2471,44 +2311,47 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="8"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A40:C41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
@@ -2516,13 +2359,13 @@
           <x14:formula1>
             <xm:f>リスト!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G45:G50</xm:sqref>
+          <xm:sqref>F45:F51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>リスト!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H45:H50</xm:sqref>
+          <xm:sqref>G45:G51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2549,301 +2392,301 @@
       </c>
     </row>
     <row r="7" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="43"/>
-      <c r="AB7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="29"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="AB7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="21"/>
     </row>
     <row r="8" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E8" s="47">
+      <c r="E8" s="35">
         <v>42231</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38">
         <v>10000</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="AB9" s="42" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="AB9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="42" t="s">
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="43"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="34"/>
     </row>
     <row r="10" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="AB10" s="47">
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="AB10" s="35">
         <v>42231</v>
       </c>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50">
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="38">
         <v>10000</v>
       </c>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="52"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40"/>
     </row>
     <row r="11" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="52"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40"/>
     </row>
     <row r="12" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="52"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40"/>
     </row>
     <row r="13" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="52"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="40"/>
     </row>
     <row r="14" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="52"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="40"/>
     </row>
     <row r="15" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="52"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="40"/>
     </row>
     <row r="16" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="52"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="40"/>
     </row>
     <row r="17" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="52"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="40"/>
     </row>
     <row r="18" spans="5:38" x14ac:dyDescent="0.15">
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="52"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -2901,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2913,21 +2756,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
@@ -2935,7 +2778,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -2944,12 +2787,12 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -2960,7 +2803,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -2971,7 +2814,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -2979,6 +2822,14 @@
       </c>
       <c r="C6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
